--- a/Master Thesis/Analys/Top Operations.xlsx
+++ b/Master Thesis/Analys/Top Operations.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Desktop\Plugg\Exjobb\Master Thesis\Analys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" calcCompleted="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
   <si>
     <t>Report 2_6</t>
   </si>
@@ -168,13 +169,16 @@
   </si>
   <si>
     <t>Instances Per Row</t>
+  </si>
+  <si>
+    <t>Warnings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,12 +514,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE77" sqref="AE77:AE82"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
@@ -543,7 +547,7 @@
     <col min="33" max="35" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -650,7 +654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -709,7 +713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -721,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -739,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -796,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -883,7 +887,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -913,7 +917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -973,7 +977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1054,7 +1058,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -1066,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -1132,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
@@ -1156,7 +1160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
@@ -1168,7 +1172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -1252,7 +1256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1288,7 +1292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36">
       <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
@@ -1300,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1357,7 +1361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1381,7 +1385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -1537,7 +1541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36">
       <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
@@ -1561,7 +1565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1573,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36">
       <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
@@ -1673,7 +1677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36">
       <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36">
       <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
@@ -1836,7 +1840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36">
       <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
@@ -1894,7 +1898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="15">
       <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
@@ -2035,10 +2039,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="15">
       <c r="AE39" s="5"/>
     </row>
-    <row r="41" spans="1:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="15">
       <c r="B41" s="5" t="s">
         <v>47</v>
       </c>
@@ -2057,13 +2061,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36">
       <c r="B42">
-        <f>COUNTIF(C2:H2,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="B42:B75" si="3">COUNTIF(C2:H2,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="I42">
-        <f>COUNTIF(J2:O2,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="I42:I75" si="4">COUNTIF(J2:O2,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
       <c r="P42">
@@ -2079,737 +2083,737 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36">
       <c r="B43">
-        <f>COUNTIF(C3:H3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I43">
-        <f>COUNTIF(J3:O3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" ref="P43:P75" si="3">COUNTIF(Q3:U3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="P43:P75" si="5">COUNTIF(Q3:U3,"&lt;&gt;"&amp;"")</f>
         <v>0</v>
       </c>
       <c r="Z43">
-        <f t="shared" ref="Z43:Z75" si="4">COUNTIF(AA3:AD3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="Z43:Z75" si="6">COUNTIF(AA3:AD3,"&lt;&gt;"&amp;"")</f>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="shared" ref="AE43:AE75" si="5">COUNTIF(AF3:AI3,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AE43:AE75" si="7">COUNTIF(AF3:AI3,"&lt;&gt;"&amp;"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36">
       <c r="B44">
-        <f>COUNTIF(C4:H4,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I44">
-        <f>COUNTIF(J4:O4,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36">
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <f>COUNTIF(C5:H5,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <f>COUNTIF(J5:O5,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AE45">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36">
+      <c r="B46">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <f>COUNTIF(C6:H6,"&lt;&gt;"&amp;"")</f>
-        <v>6</v>
-      </c>
-      <c r="I46">
-        <f>COUNTIF(J6:O6,"&lt;&gt;"&amp;"")</f>
-        <v>5</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="Z46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AE46">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36">
+      <c r="B47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="I47">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36">
+      <c r="B48">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G48" s="6"/>
+      <c r="I48">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B47">
-        <f>COUNTIF(C7:H7,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="I47">
-        <f>COUNTIF(J7:O7,"&lt;&gt;"&amp;"")</f>
-        <v>2</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z47">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE47">
+      <c r="Z48">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:31">
+      <c r="B49">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G49" s="6"/>
+      <c r="I49">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B48">
-        <f>COUNTIF(C8:H8,"&lt;&gt;"&amp;"")</f>
         <v>4</v>
       </c>
-      <c r="G48" s="6"/>
-      <c r="I48">
-        <f>COUNTIF(J8:O8,"&lt;&gt;"&amp;"")</f>
+      <c r="Z49">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="P48">
-        <f t="shared" si="3"/>
+      <c r="AE49">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31">
+      <c r="B50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="6"/>
+      <c r="I50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:31">
+      <c r="B51">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:31">
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31">
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:31">
+      <c r="B54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31">
+      <c r="B55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31">
+      <c r="B56">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31">
+      <c r="B57">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="Z48">
-        <f t="shared" si="4"/>
+      <c r="P57">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:31">
+      <c r="B58">
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AE48">
+      <c r="I58">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31">
+      <c r="B59">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31">
+      <c r="B60">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31">
+      <c r="B61">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE61">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:31">
+      <c r="B62">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE62">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:31">
+      <c r="B63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:31">
+      <c r="B64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31">
+      <c r="B65">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P65">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B49">
-        <f>COUNTIF(C9:H9,"&lt;&gt;"&amp;"")</f>
+      <c r="Z65">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31">
+      <c r="B66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31">
+      <c r="B67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z67">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE67">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:31">
+      <c r="B68">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31">
+      <c r="B69">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31">
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31">
+      <c r="B71">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AE71">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31">
+      <c r="B72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31">
+      <c r="B73">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="I49">
-        <f>COUNTIF(J9:O9,"&lt;&gt;"&amp;"")</f>
+      <c r="I73">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE73">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31">
+      <c r="B74">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="P49">
-        <f t="shared" si="3"/>
+      <c r="Z74">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="Z49">
-        <f t="shared" si="4"/>
+      <c r="AE74">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="AE49">
+    </row>
+    <row r="75" spans="2:31">
+      <c r="B75">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P75">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B50">
-        <f>COUNTIF(C10:H10,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="G50" s="6"/>
-      <c r="I50">
-        <f>COUNTIF(J10:O10,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B51">
-        <f>COUNTIF(C11:H11,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <f>COUNTIF(J11:O11,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z51">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE51">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B52">
-        <f>COUNTIF(C12:H12,"&lt;&gt;"&amp;"")</f>
-        <v>4</v>
-      </c>
-      <c r="I52">
-        <f>COUNTIF(J12:O12,"&lt;&gt;"&amp;"")</f>
-        <v>2</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z52">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B53">
-        <f>COUNTIF(C13:H13,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <f>COUNTIF(J13:O13,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE53">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B54">
-        <f>COUNTIF(C14:H14,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <f>COUNTIF(J14:O14,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE54">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B55">
-        <f>COUNTIF(C15:H15,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <f>COUNTIF(J15:O15,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B56">
-        <f>COUNTIF(C16:H16,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <f>COUNTIF(J16:O16,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE56">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B57">
-        <f>COUNTIF(C17:H17,"&lt;&gt;"&amp;"")</f>
-        <v>4</v>
-      </c>
-      <c r="I57">
-        <f>COUNTIF(J17:O17,"&lt;&gt;"&amp;"")</f>
+        <v>2</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="P57">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z57">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE57">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B58">
-        <f>COUNTIF(C18:H18,"&lt;&gt;"&amp;"")</f>
+      <c r="AE75">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="I58">
-        <f>COUNTIF(J18:O18,"&lt;&gt;"&amp;"")</f>
-        <v>2</v>
-      </c>
-      <c r="P58">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z58">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE58">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B59">
-        <f>COUNTIF(C19:H19,"&lt;&gt;"&amp;"")</f>
-        <v>4</v>
-      </c>
-      <c r="I59">
-        <f>COUNTIF(J19:O19,"&lt;&gt;"&amp;"")</f>
-        <v>3</v>
-      </c>
-      <c r="P59">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z59">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE59">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B60">
-        <f>COUNTIF(C20:H20,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <f>COUNTIF(J20:O20,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B61">
-        <f>COUNTIF(C21:H21,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <f>COUNTIF(J21:O21,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="P61">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z61">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE61">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B62">
-        <f>COUNTIF(C22:H22,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <f>COUNTIF(J22:O22,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="P62">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z62">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE62">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B63">
-        <f>COUNTIF(C23:H23,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <f>COUNTIF(J23:O23,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B64">
-        <f>COUNTIF(C24:H24,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <f>COUNTIF(J24:O24,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE64">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B65">
-        <f>COUNTIF(C25:H25,"&lt;&gt;"&amp;"")</f>
-        <v>5</v>
-      </c>
-      <c r="I65">
-        <f>COUNTIF(J25:O25,"&lt;&gt;"&amp;"")</f>
-        <v>4</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Z65">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE65">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B66">
-        <f>COUNTIF(C26:H26,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <f>COUNTIF(J26:O26,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="P66">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z66">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE66">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B67">
-        <f>COUNTIF(C27:H27,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <f>COUNTIF(J27:O27,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="P67">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="Z67">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE67">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B68">
-        <f>COUNTIF(C28:H28,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <f>COUNTIF(J28:O28,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z68">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE68">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B69">
-        <f>COUNTIF(C29:H29,"&lt;&gt;"&amp;"")</f>
-        <v>2</v>
-      </c>
-      <c r="I69">
-        <f>COUNTIF(J29:O29,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z69">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE69">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B70">
-        <f>COUNTIF(C30:H30,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <f>COUNTIF(J30:O30,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z70">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AE70">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B71">
-        <f>COUNTIF(C31:H31,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <f>COUNTIF(J31:O31,"&lt;&gt;"&amp;"")</f>
-        <v>1</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z71">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AE71">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B72">
-        <f>COUNTIF(C32:H32,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <f>COUNTIF(J32:O32,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z72">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE72">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B73">
-        <f>COUNTIF(C33:H33,"&lt;&gt;"&amp;"")</f>
-        <v>5</v>
-      </c>
-      <c r="I73">
-        <f>COUNTIF(J33:O33,"&lt;&gt;"&amp;"")</f>
-        <v>4</v>
-      </c>
-      <c r="P73">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z73">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AE73">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B74">
-        <f>COUNTIF(C34:H34,"&lt;&gt;"&amp;"")</f>
-        <v>6</v>
-      </c>
-      <c r="I74">
-        <f>COUNTIF(J34:O34,"&lt;&gt;"&amp;"")</f>
-        <v>6</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="Z74">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AE74">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B75">
-        <f>COUNTIF(C35:H35,"&lt;&gt;"&amp;"")</f>
-        <v>4</v>
-      </c>
-      <c r="I75">
-        <f>COUNTIF(J35:O35,"&lt;&gt;"&amp;"")</f>
-        <v>4</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="Z75">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AE75">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:31" ht="15">
       <c r="B77" s="5" t="s">
         <v>46</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:31">
       <c r="B78" s="6" t="str">
         <f>INDEX($A$2:$A$35,MATCH(1,INDEX((B$42:B$75=LARGE(B$42:B$75,ROWS(B$77:B77)))*(COUNTIF(B$77:B77,$A$2:$A$35)=0),),0))</f>
         <v>Clustered Index Scan</v>
@@ -2852,7 +2856,7 @@
         <v>Compute Scalar</v>
       </c>
     </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:31">
       <c r="B79" s="6" t="str">
         <f>INDEX($A$2:$A$35,MATCH(1,INDEX((B$42:B$75=LARGE(B$42:B$75,ROWS(B$77:B78)))*(COUNTIF(B$77:B78,$A$2:$A$35)=0),),0))</f>
         <v>Top</v>
@@ -2876,7 +2880,7 @@
         <v>Top</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31">
       <c r="B80" s="6" t="str">
         <f>INDEX($A$2:$A$35,MATCH(1,INDEX((B$42:B$75=LARGE(B$42:B$75,ROWS(B$77:B79)))*(COUNTIF(B$77:B79,$A$2:$A$35)=0),),0))</f>
         <v>Compute Scalar</v>
@@ -2900,7 +2904,7 @@
         <v>Clustered Index Scan</v>
       </c>
     </row>
-    <row r="81" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:31">
       <c r="B81" s="6" t="str">
         <f>INDEX($A$2:$A$35,MATCH(1,INDEX((B$42:B$75=LARGE(B$42:B$75,ROWS(B$77:B80)))*(COUNTIF(B$77:B80,$A$2:$A$35)=0),),0))</f>
         <v>Nested Loops (Inner Join)</v>
@@ -2924,7 +2928,7 @@
         <v>Clustered Index Update</v>
       </c>
     </row>
-    <row r="82" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:31">
       <c r="B82" s="6" t="str">
         <f>INDEX($A$2:$A$35,MATCH(1,INDEX((B$42:B$75=LARGE(B$42:B$75,ROWS(B$77:B81)))*(COUNTIF(B$77:B81,$A$2:$A$35)=0),),0))</f>
         <v>Stream Aggregate</v>
@@ -2955,4 +2959,152 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="8.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Master Thesis/Analys/Top Operations.xlsx
+++ b/Master Thesis/Analys/Top Operations.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Report 2_6</t>
   </si>
@@ -169,16 +168,13 @@
   </si>
   <si>
     <t>Instances Per Row</t>
-  </si>
-  <si>
-    <t>Warnings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -232,6 +228,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,12 +511,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ82"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1"/>
+      <selection pane="topRight" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
@@ -547,7 +544,7 @@
     <col min="33" max="35" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -654,7 +651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -713,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -725,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>33</v>
       </c>
@@ -743,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -800,7 +797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -887,7 +884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
@@ -917,7 +914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -977,7 +974,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1058,7 +1055,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
@@ -1070,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>34</v>
       </c>
@@ -1088,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1124,7 +1121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -1136,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -1148,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
@@ -1160,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
@@ -1172,7 +1169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
@@ -1217,7 +1214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -1256,7 +1253,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
@@ -1292,7 +1289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>44</v>
       </c>
@@ -1304,7 +1301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1361,7 +1358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1385,7 +1382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1432,7 +1429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -1444,7 +1441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1517,7 +1514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -1541,7 +1538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>38</v>
       </c>
@@ -1565,7 +1562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -1577,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
@@ -1626,7 +1623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
@@ -1641,7 +1638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>21</v>
       </c>
@@ -1677,7 +1674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>43</v>
       </c>
@@ -1689,7 +1686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
@@ -1743,7 +1740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
@@ -1840,7 +1837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
@@ -1898,7 +1895,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="15">
+    <row r="38" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
@@ -2039,10 +2036,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="15">
+    <row r="39" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="AE39" s="5"/>
     </row>
-    <row r="41" spans="1:36" ht="15">
+    <row r="41" spans="1:36" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>47</v>
       </c>
@@ -2061,119 +2058,223 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B42">
         <f t="shared" ref="B42:B75" si="3">COUNTIF(C2:H2,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
+      <c r="D42" s="7">
+        <f>SUM(B42/$B$38)</f>
+        <v>1.0869565217391304E-2</v>
+      </c>
       <c r="I42">
         <f t="shared" ref="I42:I75" si="4">COUNTIF(J2:O2,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
+      <c r="K42" s="7">
+        <f>SUM(I42/I$38)</f>
+        <v>1.2987012987012988E-2</v>
+      </c>
       <c r="P42">
         <f>COUNTIF(Q2:U2,"&lt;&gt;"&amp;"")</f>
         <v>2</v>
       </c>
+      <c r="R42" s="7">
+        <f>SUM(P42/P$38)</f>
+        <v>2.8169014084507043E-2</v>
+      </c>
       <c r="Z42">
         <f>COUNTIF(AA2:AD2,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
+      <c r="AB42" s="7">
+        <f>SUM(Z42/Z$38)</f>
+        <v>1.7543859649122806E-2</v>
+      </c>
       <c r="AE42">
         <f>COUNTIF(AF2:AI2,"&lt;&gt;"&amp;"")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:36">
+      <c r="AG42" s="7">
+        <f>SUM(AE42/AE$38)</f>
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="D43" s="7">
+        <f t="shared" ref="D43:D75" si="5">SUM(B43/$B$38)</f>
+        <v>0</v>
+      </c>
       <c r="I43">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K43" s="7">
+        <f t="shared" ref="K43:K75" si="6">SUM(I43/I$38)</f>
+        <v>0</v>
+      </c>
       <c r="P43">
-        <f t="shared" ref="P43:P75" si="5">COUNTIF(Q3:U3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="P43:P75" si="7">COUNTIF(Q3:U3,"&lt;&gt;"&amp;"")</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="7">
+        <f t="shared" ref="R43:R75" si="8">SUM(P43/P$38)</f>
         <v>0</v>
       </c>
       <c r="Z43">
-        <f t="shared" ref="Z43:Z75" si="6">COUNTIF(AA3:AD3,"&lt;&gt;"&amp;"")</f>
+        <f t="shared" ref="Z43:Z75" si="9">COUNTIF(AA3:AD3,"&lt;&gt;"&amp;"")</f>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="7">
+        <f t="shared" ref="AB43:AB75" si="10">SUM(Z43/Z$38)</f>
         <v>0</v>
       </c>
       <c r="AE43">
-        <f t="shared" ref="AE43:AE75" si="7">COUNTIF(AF3:AI3,"&lt;&gt;"&amp;"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36">
+        <f t="shared" ref="AE43:AE75" si="11">COUNTIF(AF3:AI3,"&lt;&gt;"&amp;"")</f>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="7">
+        <f t="shared" ref="AG43:AG75" si="12">SUM(AE43/AE$38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B44">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="D44" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
       <c r="I44">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="K44" s="7">
+        <f t="shared" si="6"/>
+        <v>1.2987012987012988E-2</v>
+      </c>
       <c r="P44">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R44" s="7">
+        <f t="shared" si="8"/>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="Z44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE44">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B45">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="D45" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
       <c r="I45">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="K45" s="7">
+        <f t="shared" si="6"/>
+        <v>1.2987012987012988E-2</v>
+      </c>
       <c r="P45">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R45" s="7">
+        <f t="shared" si="8"/>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="Z45">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB45" s="7">
+        <f t="shared" si="10"/>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="AE45">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG45" s="7">
+        <f t="shared" si="12"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B46">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="D46" s="7">
+        <f t="shared" si="5"/>
+        <v>6.5217391304347824E-2</v>
+      </c>
       <c r="I46">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="K46" s="7">
+        <f t="shared" si="6"/>
+        <v>6.4935064935064929E-2</v>
+      </c>
       <c r="P46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
+      <c r="R46" s="7">
+        <f t="shared" si="8"/>
+        <v>5.6338028169014086E-2</v>
+      </c>
       <c r="Z46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
+      <c r="AB46" s="7">
+        <f t="shared" si="10"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
       <c r="AE46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:36">
+      <c r="AG46" s="7">
+        <f t="shared" si="12"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B47">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G47" s="6"/>
@@ -2181,68 +2282,128 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
+      <c r="K47" s="7">
+        <f t="shared" si="6"/>
+        <v>2.5974025974025976E-2</v>
+      </c>
       <c r="P47">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R47" s="7">
+        <f t="shared" si="8"/>
+        <v>2.8169014084507043E-2</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB47" s="7">
+        <f t="shared" si="10"/>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="AE47">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG47" s="7">
+        <f t="shared" si="12"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B48">
         <f t="shared" si="3"/>
         <v>4</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="5"/>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="G48" s="6"/>
       <c r="I48">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
+      <c r="K48" s="7">
+        <f t="shared" si="6"/>
+        <v>5.1948051948051951E-2</v>
+      </c>
       <c r="P48">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Z48">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AE48">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="2:31">
+      <c r="R48" s="7">
+        <f t="shared" si="8"/>
+        <v>4.2253521126760563E-2</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AB48" s="7">
+        <f t="shared" si="10"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AG48" s="7">
+        <f t="shared" si="12"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B49">
         <f t="shared" si="3"/>
         <v>5</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="5"/>
+        <v>5.434782608695652E-2</v>
       </c>
       <c r="G49" s="6"/>
       <c r="I49">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="K49" s="7">
+        <f t="shared" si="6"/>
+        <v>6.4935064935064929E-2</v>
+      </c>
       <c r="P49">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Z49">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AE49">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="2:31">
+      <c r="R49" s="7">
+        <f t="shared" si="8"/>
+        <v>5.6338028169014086E-2</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AB49" s="7">
+        <f t="shared" si="10"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AG49" s="7">
+        <f t="shared" si="12"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B50">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G50" s="6"/>
@@ -2250,570 +2411,1087 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="K50" s="7">
+        <f t="shared" si="6"/>
+        <v>1.2987012987012988E-2</v>
+      </c>
       <c r="P50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B51">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="D51" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
       <c r="I51">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="K51" s="7">
+        <f t="shared" si="6"/>
+        <v>1.2987012987012988E-2</v>
+      </c>
       <c r="P51">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R51" s="7">
+        <f t="shared" si="8"/>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="Z51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE51">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG51" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B52">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="D52" s="7">
+        <f t="shared" si="5"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
       <c r="I52">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
+      <c r="K52" s="7">
+        <f t="shared" si="6"/>
+        <v>2.5974025974025976E-2</v>
+      </c>
       <c r="P52">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R52" s="7">
+        <f t="shared" si="8"/>
+        <v>2.8169014084507043E-2</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB52" s="7">
+        <f t="shared" si="10"/>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="AE52">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG52" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B53">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="D53" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I53">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K53" s="7">
+        <f>SUM(I53/I$38)</f>
+        <v>0</v>
+      </c>
       <c r="P53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB53" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE53">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG53" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B54">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="D54" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
       <c r="I54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K54" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="P54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB54" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="D55" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I55">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K55" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="P55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R55" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB55" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG55" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B56">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="D56" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
       <c r="I56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K56" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="P56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R56" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB56" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE56">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG56" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B57">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="D57" s="7">
+        <f t="shared" si="5"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
       <c r="I57">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
+      <c r="K57" s="7">
+        <f t="shared" si="6"/>
+        <v>3.896103896103896E-2</v>
+      </c>
       <c r="P57">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R57" s="7">
+        <f t="shared" si="8"/>
+        <v>2.8169014084507043E-2</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB57" s="7">
+        <f t="shared" si="10"/>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="AE57">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG57" s="7">
+        <f t="shared" si="12"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B58">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="D58" s="7">
+        <f t="shared" si="5"/>
+        <v>3.2608695652173912E-2</v>
+      </c>
       <c r="I58">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
+      <c r="K58" s="7">
+        <f t="shared" si="6"/>
+        <v>2.5974025974025976E-2</v>
+      </c>
       <c r="P58">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R58" s="7">
+        <f t="shared" si="8"/>
+        <v>2.8169014084507043E-2</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB58" s="7">
+        <f t="shared" si="10"/>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="AE58">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG58" s="7">
+        <f t="shared" si="12"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B59">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="D59" s="7">
+        <f t="shared" si="5"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
       <c r="I59">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
+      <c r="K59" s="7">
+        <f t="shared" si="6"/>
+        <v>3.896103896103896E-2</v>
+      </c>
       <c r="P59">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R59" s="7">
+        <f t="shared" si="8"/>
+        <v>2.8169014084507043E-2</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB59" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE59">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B60">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="D60" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I60">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K60" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="P60">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R60" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="7"/>
       <c r="Z60">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB60" s="7">
+        <f t="shared" si="10"/>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="AE60">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B61">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="D61" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
       <c r="I61">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="K61" s="7">
+        <f t="shared" si="6"/>
+        <v>1.2987012987012988E-2</v>
+      </c>
       <c r="P61">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R61" s="7">
+        <f t="shared" si="8"/>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB61" s="7">
+        <f t="shared" si="10"/>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="AE61">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG61" s="7">
+        <f t="shared" si="12"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B62">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="D62" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
       <c r="I62">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="K62" s="7">
+        <f t="shared" si="6"/>
+        <v>1.2987012987012988E-2</v>
+      </c>
       <c r="P62">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R62" s="7">
+        <f t="shared" si="8"/>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB62" s="7">
+        <f t="shared" si="10"/>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="AE62">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG62" s="7">
+        <f t="shared" si="12"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B63">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="D63" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
       <c r="I63">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K63" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="P63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB63" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B64">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="D64" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I64">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K64" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="P64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB64" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG64" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B65">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
+      <c r="D65" s="7">
+        <f t="shared" si="5"/>
+        <v>5.434782608695652E-2</v>
+      </c>
       <c r="I65">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
+      <c r="K65" s="7">
+        <f t="shared" si="6"/>
+        <v>5.1948051948051951E-2</v>
+      </c>
       <c r="P65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
+      <c r="R65" s="7">
+        <f t="shared" si="8"/>
+        <v>4.2253521126760563E-2</v>
+      </c>
       <c r="Z65">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB65" s="7">
+        <f t="shared" si="10"/>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="AE65">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG65" s="7">
+        <f t="shared" si="12"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="D66" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I66">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="K66" s="7">
+        <f t="shared" si="6"/>
+        <v>1.2987012987012988E-2</v>
+      </c>
       <c r="P66">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R66" s="7">
+        <f t="shared" si="8"/>
+        <v>2.8169014084507043E-2</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB66" s="7">
+        <f t="shared" si="10"/>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="AE66">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG66" s="7">
+        <f t="shared" si="12"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B67">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="D67" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I67">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="K67" s="7">
+        <f t="shared" si="6"/>
+        <v>1.2987012987012988E-2</v>
+      </c>
       <c r="P67">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R67" s="7">
+        <f t="shared" si="8"/>
+        <v>1.4084507042253521E-2</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB67" s="7">
+        <f t="shared" si="10"/>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="AE67">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG67" s="7">
+        <f t="shared" si="12"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B68">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="D68" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
       <c r="I68">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K68" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="P68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R68" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB68" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG68" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B69">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="D69" s="7">
+        <f t="shared" si="5"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
       <c r="I69">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K69" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="P69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R69" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB69" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG69" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B70">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="D70" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
       <c r="I70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K70" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="P70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R70" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB70" s="7">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE70">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG70" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B71">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="D71" s="7">
+        <f t="shared" si="5"/>
+        <v>1.0869565217391304E-2</v>
+      </c>
       <c r="I71">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="K71" s="7">
+        <f t="shared" si="6"/>
+        <v>1.2987012987012988E-2</v>
+      </c>
       <c r="P71">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R71" s="7">
+        <f t="shared" si="8"/>
+        <v>2.8169014084507043E-2</v>
       </c>
       <c r="Z71">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AB71" s="7">
+        <f t="shared" si="10"/>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="AE71">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG71" s="7">
+        <f t="shared" si="12"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B72">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="D72" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I72">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="K72" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="P72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="7">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z72">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB72" s="7">
+        <f t="shared" si="10"/>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="AE72">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG72" s="7">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B73">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
+      <c r="D73" s="7">
+        <f t="shared" si="5"/>
+        <v>5.434782608695652E-2</v>
+      </c>
       <c r="I73">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
+      <c r="K73" s="7">
+        <f t="shared" si="6"/>
+        <v>5.1948051948051951E-2</v>
+      </c>
       <c r="P73">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R73" s="7">
+        <f t="shared" si="8"/>
+        <v>2.8169014084507043E-2</v>
       </c>
       <c r="Z73">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AB73" s="7">
+        <f t="shared" si="10"/>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="AE73">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:31">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AG73" s="7">
+        <f t="shared" si="12"/>
+        <v>1.9607843137254902E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B74">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="D74" s="7">
+        <f t="shared" si="5"/>
+        <v>6.5217391304347824E-2</v>
+      </c>
       <c r="I74">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
+      <c r="K74" s="7">
+        <f t="shared" si="6"/>
+        <v>7.792207792207792E-2</v>
+      </c>
       <c r="P74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
+      <c r="R74" s="7">
+        <f t="shared" si="8"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
       <c r="Z74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
+      <c r="AB74" s="7">
+        <f t="shared" si="10"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
       <c r="AE74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="2:31">
+      <c r="AG74" s="7">
+        <f t="shared" si="12"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B75">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
+      <c r="D75" s="7">
+        <f t="shared" si="5"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
       <c r="I75">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
+      <c r="K75" s="7">
+        <f t="shared" si="6"/>
+        <v>5.1948051948051951E-2</v>
+      </c>
       <c r="P75">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="R75" s="7">
+        <f t="shared" si="8"/>
+        <v>2.8169014084507043E-2</v>
       </c>
       <c r="Z75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
+      <c r="AB75" s="7">
+        <f t="shared" si="10"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
       <c r="AE75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" ht="15">
+      <c r="AG75" s="7">
+        <f t="shared" si="12"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:33" ht="15" x14ac:dyDescent="0.25">
       <c r="B77" s="5" t="s">
         <v>46</v>
       </c>
@@ -2832,7 +3510,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="2:31">
+    <row r="78" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="str">
         <f>INDEX($A$2:$A$35,MATCH(1,INDEX((B$42:B$75=LARGE(B$42:B$75,ROWS(B$77:B77)))*(COUNTIF(B$77:B77,$A$2:$A$35)=0),),0))</f>
         <v>Clustered Index Scan</v>
@@ -2856,7 +3534,7 @@
         <v>Compute Scalar</v>
       </c>
     </row>
-    <row r="79" spans="2:31">
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="str">
         <f>INDEX($A$2:$A$35,MATCH(1,INDEX((B$42:B$75=LARGE(B$42:B$75,ROWS(B$77:B78)))*(COUNTIF(B$77:B78,$A$2:$A$35)=0),),0))</f>
         <v>Top</v>
@@ -2880,7 +3558,7 @@
         <v>Top</v>
       </c>
     </row>
-    <row r="80" spans="2:31">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="str">
         <f>INDEX($A$2:$A$35,MATCH(1,INDEX((B$42:B$75=LARGE(B$42:B$75,ROWS(B$77:B79)))*(COUNTIF(B$77:B79,$A$2:$A$35)=0),),0))</f>
         <v>Compute Scalar</v>
@@ -2904,7 +3582,7 @@
         <v>Clustered Index Scan</v>
       </c>
     </row>
-    <row r="81" spans="2:31">
+    <row r="81" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="str">
         <f>INDEX($A$2:$A$35,MATCH(1,INDEX((B$42:B$75=LARGE(B$42:B$75,ROWS(B$77:B80)))*(COUNTIF(B$77:B80,$A$2:$A$35)=0),),0))</f>
         <v>Nested Loops (Inner Join)</v>
@@ -2928,7 +3606,7 @@
         <v>Clustered Index Update</v>
       </c>
     </row>
-    <row r="82" spans="2:31">
+    <row r="82" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="str">
         <f>INDEX($A$2:$A$35,MATCH(1,INDEX((B$42:B$75=LARGE(B$42:B$75,ROWS(B$77:B81)))*(COUNTIF(B$77:B81,$A$2:$A$35)=0),),0))</f>
         <v>Stream Aggregate</v>
@@ -2959,152 +3637,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="8.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>